--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1496882.180293864</v>
+        <v>1552727.706295038</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16618375.1158991</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6482516.368346007</v>
+        <v>6493506.513939264</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>358.8320064489648</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>99.75646002932245</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -820,13 +820,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>74.09238164368615</v>
+        <v>81.04273772483776</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,16 +896,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>70.6512398155116</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>356.0553940290274</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>59.9801113253285</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225712</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,16 +1133,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>419.9023013107135</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>79.43158348657937</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1297,7 +1297,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>54.55866964118921</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1433,10 +1433,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518605</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.4201062858531</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022503</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>205.2237322525188</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454369</v>
       </c>
       <c r="C14" t="n">
-        <v>165.7499153537887</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.9855059742093</v>
+        <v>224.1172100463654</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>165.7499153537897</v>
+        <v>248.9778919109214</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2005,16 +2005,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>109.1426757626848</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2053,13 +2053,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>140.434281961595</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>129.3727203283471</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719949</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>20.28369113775125</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>104.6990987647609</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>13.01313443288605</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225747</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904432</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.17722654850354</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3199,10 +3199,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>89.78186289252687</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225797</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884114</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3430,7 +3430,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>128.537488214542</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,10 +3481,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>187.5234134555186</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>94.50264048967848</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,13 +3718,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>139.9514671241876</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800596</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479132298</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170566</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>13.51446909090096</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>91.39226931002236</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>122.4914619056499</v>
+        <v>103.3456594571957</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001414</v>
+        <v>1668.697471405971</v>
       </c>
       <c r="C2" t="n">
-        <v>449.9616071239688</v>
+        <v>1230.554998589394</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>794.6452137638386</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>764.9108729625378</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>337.0434433717456</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>337.0434433717456</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.91328881496184</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210184</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>482.7511868950197</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>483.6337602014198</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>483.6337602014198</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>483.6337602014198</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>483.6337602014198</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1071.40294079743</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1659.172121393441</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2205.670907352035</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105092</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2291.173098288929</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2071.105871161968</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1811.883568478984</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1711.119467439265</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1710.304416890702</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449918</v>
+        <v>1695.202357510417</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850493</v>
+        <v>1690.956637850474</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>553.6682444333946</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>447.2117832700369</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>352.1214944165902</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>258.0010797435439</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>174.6172413597055</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>89.23215162588937</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210184</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>73.56017260255945</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>398.1184975687718</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>985.8876781647821</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1593.563482826571</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1710.736260920911</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1647.280823369294</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1517.102179699895</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1340.765632699864</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1141.648114761863</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>956.3253604950571</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>801.457924733937</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.9721455131578</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>936.2947751752459</v>
+        <v>790.9186635062432</v>
       </c>
       <c r="C4" t="n">
-        <v>763.7330636584709</v>
+        <v>618.3569519894681</v>
       </c>
       <c r="D4" t="n">
-        <v>597.8550708599936</v>
+        <v>618.3569519894681</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>618.3569519894681</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>441.6498979512243</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>276.058622977052</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>136.1564486674265</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210184</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>47.49649944210184</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>287.6962768024504</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>705.9061585704114</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1165.390025751324</v>
       </c>
       <c r="N4" t="n">
-        <v>1653.597487995201</v>
+        <v>1607.648828908969</v>
       </c>
       <c r="O4" t="n">
-        <v>1653.597487995201</v>
+        <v>2027.318078134751</v>
       </c>
       <c r="P4" t="n">
-        <v>1653.597487995201</v>
+        <v>2374.824972105092</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105092</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2374.824972105092</v>
       </c>
       <c r="S4" t="n">
-        <v>1600.924819246712</v>
+        <v>2292.963620867882</v>
       </c>
       <c r="T4" t="n">
-        <v>1600.924819246712</v>
+        <v>2292.963620867882</v>
       </c>
       <c r="U4" t="n">
-        <v>1600.924819246712</v>
+        <v>2014.530620120988</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.924819246712</v>
+        <v>1727.575111991418</v>
       </c>
       <c r="W4" t="n">
-        <v>1600.924819246712</v>
+        <v>1455.54870757771</v>
       </c>
       <c r="X4" t="n">
-        <v>1355.533064580125</v>
+        <v>1210.156952911122</v>
       </c>
       <c r="Y4" t="n">
-        <v>1128.113393894233</v>
+        <v>982.7372822252303</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1625.81854137788</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1625.81854137788</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.596238694897</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1003.979288628724</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>599.123834039757</v>
+        <v>1831.119383460849</v>
       </c>
       <c r="X5" t="n">
-        <v>584.0217746594717</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.39009218466</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C7" t="n">
-        <v>665.39009218466</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D7" t="n">
-        <v>665.39009218466</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X7" t="n">
-        <v>892.8097628705518</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.39009218466</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.3855594523338</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C8" t="n">
-        <v>930.2834906761613</v>
+        <v>531.106321578008</v>
       </c>
       <c r="D8" t="n">
-        <v>898.4141098910098</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>464.639365049305</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105257</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105257</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105257</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105257</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274466</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626542</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925637</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1475.979822859463</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1475.164772310901</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.930849597184</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y8" t="n">
-        <v>986.6447258968376</v>
+        <v>991.5079608390885</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1001.181859635464</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>828.6201481186889</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7421553202116</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851274</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.5303900296483</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>729.7402717976094</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>729.7402717976094</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1171.999074955254</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090963</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925637</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178742</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.208264049172</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1001.181859635464</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>1001.181859635464</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1001.181859635464</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111518</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590674</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.8119928040986</v>
+        <v>844.3248695203469</v>
       </c>
       <c r="C13" t="n">
-        <v>612.2502812873236</v>
+        <v>671.7631580035718</v>
       </c>
       <c r="D13" t="n">
-        <v>446.3722884888464</v>
+        <v>671.7631580035718</v>
       </c>
       <c r="E13" t="n">
-        <v>276.6142847395836</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F13" t="n">
-        <v>99.90723070133981</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111518</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418843</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875565</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208977</v>
+        <v>1263.563158925226</v>
       </c>
       <c r="Y13" t="n">
-        <v>976.6306115230857</v>
+        <v>1036.143488239334</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
@@ -5285,19 +5285,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5361,16 +5361,16 @@
         <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>921.5429130934996</v>
+        <v>999.0870832547528</v>
       </c>
       <c r="C16" t="n">
-        <v>748.9812015767245</v>
+        <v>826.5253717379777</v>
       </c>
       <c r="D16" t="n">
-        <v>583.1032087782472</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E16" t="n">
-        <v>413.3452050289845</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F16" t="n">
-        <v>236.6381509907407</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5467,19 +5467,19 @@
         <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713473</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583903</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170195</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.361531812487</v>
+        <v>999.0870832547528</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2336.30874198473</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>612.250281287324</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>612.250281287324</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G19" t="n">
         <v>325.2981002160653</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
         <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2532.736396587283</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2254.303395840388</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778171</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847301</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939379</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1010.202862318824</v>
+        <v>790.3368563937636</v>
       </c>
       <c r="C22" t="n">
-        <v>837.6411508020492</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D22" t="n">
-        <v>671.763158003572</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E22" t="n">
-        <v>502.0051542543092</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F22" t="n">
-        <v>325.2981002160654</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2512.247819680464</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2233.814818933569</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1946.859310803999</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1674.832906390291</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1429.441151723703</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1202.021481037811</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2613.163784754629</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2367.284338333084</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2088.851337586189</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1801.89582945662</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1284.477670376324</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1017.756527079656</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>845.1948155628805</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>679.3168227644032</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>509.5588190151406</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.575145798643</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6655,16 +6655,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1181.319000882661</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1017.756527079656</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>845.1948155628808</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>679.3168227644035</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>509.5588190151407</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>332.8517649768969</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798643</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6935,52 +6935,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1011.560997133398</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>838.9992856166232</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
         <v>673.1212928181459</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2567.666782197595</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2321.78733577605</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2043.354335029156</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1756.398826899586</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="W37" t="n">
-        <v>1484.372422485878</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.98066781929</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1011.560997133398</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>628.6763311243573</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>451.9692770861135</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>286.3780021119412</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>2013.948813008509</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1741.9224085948</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7397,13 +7397,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436405</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7445,16 +7445,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883928</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716177</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731404</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238776</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856339</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7570,49 +7570,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745665</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.22078133891</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173584</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2683.851649999257</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2437.972203577713</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U43" t="n">
-        <v>2159.539202830818</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1872.583694701249</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093272</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W45" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405613</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D46" t="n">
-        <v>754.219347342084</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.608003005139</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.65249487557</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.626090461862</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376324</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0.8914881882828922</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>593.706243026273</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>593.7062430262733</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>593.706243026273</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>67.61299598960966</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>242.6260377377258</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.02620412648071</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>1.426309209011038</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>152.4222516522311</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,13 +8933,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9009,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="Y11" t="n">
-        <v>184.78315617749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444081</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>37.71410486740288</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="C14" t="n">
-        <v>268.0111327346222</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.1599680048235</v>
+        <v>1.028263932667357</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>268.0111327346212</v>
+        <v>184.7831561774895</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>58.9177479490853</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>268.0111327346217</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.136960819578</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>52.94985625022238</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>161.9268490649753</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>175.9682474305293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>74.15349933190373</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>29.11146680044134</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>96.56253959275524</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>44.00051207685074</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>102.986369995734</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>144.1344859240824</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>267.5985112554894</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>120.4463752142717</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>569086.8324802801</v>
+        <v>570824.1958762064</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>569086.8324802801</v>
+        <v>571581.1328918135</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>569449.3934366535</v>
+        <v>571581.1328918135</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>543694.7948897398</v>
+        <v>543694.7948897396</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>543694.7948897398</v>
+        <v>566639.3365239298</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>566639.33652393</v>
+        <v>566639.3365239298</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>566639.3365239301</v>
+        <v>566639.3365239298</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>566639.3365239298</v>
+        <v>543694.7948897398</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>375303.123923286</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>353866.7285801734</v>
+        <v>353866.7285801735</v>
       </c>
       <c r="F2" t="n">
         <v>353866.7285801735</v>
@@ -26329,7 +26329,7 @@
         <v>353866.7285801735</v>
       </c>
       <c r="H2" t="n">
-        <v>353866.7285801735</v>
+        <v>368800.3088961468</v>
       </c>
       <c r="I2" t="n">
         <v>368800.3088961467</v>
@@ -26347,13 +26347,13 @@
         <v>368800.3088961467</v>
       </c>
       <c r="N2" t="n">
-        <v>368800.3088961468</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="P2" t="n">
-        <v>368800.3088961466</v>
+        <v>353866.7285801736</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>198964.6172816937</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23845.51249725135</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18633.22400329715</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>155339.6762503662</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18996.0653390651</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.733493759859467e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>138265.9894175655</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414877</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26433,7 +26433,7 @@
         <v>13668.38414064833</v>
       </c>
       <c r="H4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049262</v>
+        <v>14245.2055704926</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049266</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>14245.20557049264</v>
+        <v>13668.38414064833</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69724.93957599738</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26485,7 +26485,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>73519.34227764753</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1613.204738757166</v>
+        <v>-31652.42235197051</v>
       </c>
       <c r="C6" t="n">
-        <v>140578.0959209527</v>
+        <v>155114.2336391418</v>
       </c>
       <c r="D6" t="n">
-        <v>135175.283561326</v>
+        <v>178959.7461363931</v>
       </c>
       <c r="E6" t="n">
-        <v>42879.70840985014</v>
+        <v>104867.3683969664</v>
       </c>
       <c r="F6" t="n">
-        <v>266679.0021618776</v>
+        <v>266602.4436070808</v>
       </c>
       <c r="G6" t="n">
-        <v>266679.0021618776</v>
+        <v>266602.4436070808</v>
       </c>
       <c r="H6" t="n">
-        <v>266679.0021618777</v>
+        <v>258180.4163771818</v>
       </c>
       <c r="I6" t="n">
-        <v>258472.149087022</v>
+        <v>276813.6403804789</v>
       </c>
       <c r="J6" t="n">
-        <v>165822.3993748713</v>
+        <v>121473.9641301127</v>
       </c>
       <c r="K6" t="n">
-        <v>276836.8647198615</v>
+        <v>257817.5750414138</v>
       </c>
       <c r="L6" t="n">
-        <v>267889.2536313517</v>
+        <v>276813.6403804789</v>
       </c>
       <c r="M6" t="n">
-        <v>90045.87810939382</v>
+        <v>141823.6957674755</v>
       </c>
       <c r="N6" t="n">
-        <v>276836.8647198616</v>
+        <v>276813.6403804788</v>
       </c>
       <c r="O6" t="n">
-        <v>276836.8647198615</v>
+        <v>276813.6403804789</v>
       </c>
       <c r="P6" t="n">
-        <v>276836.8647198614</v>
+        <v>266602.4436070808</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026273</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26805,7 +26805,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.416867199824334e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026273</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>73.80896358158395</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026273</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>73.80896358158395</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026273</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>73.80896358158395</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.71868052833514</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.2343205361893</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>83.55657337129715</v>
+        <v>76.60621729014554</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>12.16411526248976</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.75150601404965</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>108.0803123864416</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>69.71657238081428</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.64838566658642</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>335.519455299903</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>113.5017540705809</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0.8914881882828922</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>593.706243026273</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>593.7062430262733</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>593.706243026273</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>67.61299598960966</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>242.6260377377258</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.02620412648071</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>1.426309209011038</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>152.4222516522311</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35653,13 +35653,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36121,7 +36121,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37002,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37236,7 +37236,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37941,16 +37941,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080418</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
